--- a/DataTest/EditProduct.xlsx
+++ b/DataTest/EditProduct.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VTTDung\OneDrive - HUCE\DATN_47265\DATN_Selenium_Java_ThuyDung1\DATN_Selenium_Java_ThuyDung\DataTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40732CB8-D34B-410D-A84A-123775F115E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D41D1E-E9EC-4D4B-B928-CC2C2E2570F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="11916" windowHeight="8880" tabRatio="602" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3810" yWindow="2925" windowWidth="22905" windowHeight="11295" tabRatio="602" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EditProduct" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t>productName</t>
   </si>
@@ -86,18 +86,6 @@
   </si>
   <si>
     <t>01-03-2024 00:00:00 to 20-03-2024 00:00:00</t>
-  </si>
-  <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>Discount</t>
-  </si>
-  <si>
-    <t>No Discount</t>
-  </si>
-  <si>
-    <t>unit null</t>
   </si>
   <si>
     <t>Sweet Cake</t>
@@ -428,29 +416,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="33.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="33.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="46" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5546875" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.6640625" style="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:11" ht="37.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -484,16 +472,13 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="2" spans="1:12" ht="54">
+    <row r="2" spans="1:11" ht="75">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
@@ -502,7 +487,7 @@
         <v>336</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F2" s="1">
         <v>138000</v>
@@ -522,16 +507,13 @@
       <c r="K2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>23</v>
-      </c>
     </row>
-    <row r="3" spans="1:12" ht="54">
+    <row r="3" spans="1:11" ht="75">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
@@ -560,16 +542,13 @@
       <c r="K3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="4" spans="1:12" ht="54">
+    <row r="4" spans="1:11" ht="75">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1">
         <v>1500</v>
@@ -595,13 +574,10 @@
       <c r="K4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="5" spans="1:12" ht="54">
+    <row r="5" spans="1:11" ht="75">
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -610,7 +586,7 @@
         <v>336</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F5" s="1">
         <v>138000</v>
@@ -629,9 +605,6 @@
       </c>
       <c r="K5" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/DataTest/EditProduct.xlsx
+++ b/DataTest/EditProduct.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VTTDung\OneDrive - HUCE\DATN_47265\DATN_Selenium_Java_ThuyDung1\DATN_Selenium_Java_ThuyDung\DataTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D41D1E-E9EC-4D4B-B928-CC2C2E2570F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B49486-4A45-4BE3-93B1-07B63C1B464D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3810" yWindow="2925" windowWidth="22905" windowHeight="11295" tabRatio="602" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>productName</t>
   </si>
@@ -419,7 +419,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C5" sqref="A1:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="18.75"/>
@@ -579,9 +579,6 @@
       <c r="B5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D5" s="1">
         <v>336</v>
       </c>

--- a/DataTest/EditProduct.xlsx
+++ b/DataTest/EditProduct.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VTTDung\OneDrive - HUCE\DATN_47265\DATN_Selenium_Java_ThuyDung1\DATN_Selenium_Java_ThuyDung\DataTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B49486-4A45-4BE3-93B1-07B63C1B464D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0951408-B6EA-42DC-A7EA-57364693D9A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3810" yWindow="2925" windowWidth="22905" windowHeight="11295" tabRatio="602" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>productName</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>cosynew</t>
+  </si>
+  <si>
+    <t>vat</t>
   </si>
 </sst>
 </file>
@@ -416,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="A1:K5"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="18.75"/>
@@ -438,7 +441,7 @@
     <col min="12" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="37.5">
+    <row r="1" spans="1:12" ht="37.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,8 +475,11 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" ht="75">
+    <row r="2" spans="1:12" ht="75">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -507,8 +513,11 @@
       <c r="K2" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="L2" s="1">
+        <v>5000</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" ht="75">
+    <row r="3" spans="1:12" ht="75">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -542,8 +551,11 @@
       <c r="K3" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="L3" s="1">
+        <v>2000</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" ht="75">
+    <row r="4" spans="1:12" ht="75">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -574,8 +586,11 @@
       <c r="K4" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="L4" s="1">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" ht="75">
+    <row r="5" spans="1:12" ht="75">
       <c r="B5" s="1" t="s">
         <v>22</v>
       </c>
@@ -602,6 +617,9 @@
       </c>
       <c r="K5" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="L5" s="1">
+        <v>3000</v>
       </c>
     </row>
   </sheetData>

--- a/DataTest/EditProduct.xlsx
+++ b/DataTest/EditProduct.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VTTDung\OneDrive - HUCE\DATN_47265\DATN_Selenium_Java_ThuyDung1\DATN_Selenium_Java_ThuyDung\DataTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0951408-B6EA-42DC-A7EA-57364693D9A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F6E55D-C748-42ED-BBCD-29175A072709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="2925" windowWidth="22905" windowHeight="11295" tabRatio="602" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="602" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EditProduct" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>productName</t>
   </si>
@@ -31,30 +31,9 @@
     <t>unit</t>
   </si>
   <si>
-    <t>weight</t>
-  </si>
-  <si>
-    <t>tags</t>
-  </si>
-  <si>
-    <t>unitPrice</t>
-  </si>
-  <si>
-    <t>discountDate</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
-    <t>discount</t>
-  </si>
-  <si>
-    <t>image</t>
-  </si>
-  <si>
     <t>Cosy</t>
   </si>
   <si>
@@ -64,37 +43,16 @@
     <t>Buy Cozy Seed Butter Cookies 336g paper box (TET TEMPLATE 2022) at good price. Buy online reputable, convenient.</t>
   </si>
   <si>
-    <t>Cosy.png</t>
-  </si>
-  <si>
-    <t>quatet</t>
-  </si>
-  <si>
     <t>Gio qua Tet</t>
   </si>
   <si>
-    <t>gio-qua-1.jpg</t>
-  </si>
-  <si>
-    <t>01-03-2024 00:00:00 to 31-05-2024 00:00:00</t>
-  </si>
-  <si>
     <t>Giỏ Quà Tết cao cấp, sang trọng dành cho mùa Tết 2024, hứa hẹn sẽ là món quà tinh thần ý nghĩa nhất cho người thân.</t>
   </si>
   <si>
     <t>Gio qua</t>
   </si>
   <si>
-    <t>01-03-2024 00:00:00 to 20-03-2024 00:00:00</t>
-  </si>
-  <si>
     <t>Sweet Cake</t>
-  </si>
-  <si>
-    <t>cosynew</t>
-  </si>
-  <si>
-    <t>vat</t>
   </si>
 </sst>
 </file>
@@ -136,13 +94,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -419,29 +374,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="20.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="33.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="46" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.7109375" style="1"/>
+    <col min="3" max="3" width="7.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="43.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="37.5">
+    <row r="1" spans="1:4" ht="37.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -454,172 +402,52 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="75">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="75">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="75">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>24</v>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="75">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1">
-        <v>336</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="1">
-        <v>138000</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="1">
-        <v>999</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="1">
-        <v>5</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="1">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="75">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1500</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1">
-        <v>500000</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="1">
-        <v>300</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="1">
-        <v>2</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="1">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="75">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1500</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="1">
-        <v>500000</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="1">
-        <v>300</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="1">
-        <v>2</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="75">
+    <row r="5" spans="1:4" ht="75">
       <c r="B5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="1">
-        <v>336</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="1">
-        <v>138000</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="1">
-        <v>999</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="1">
-        <v>5</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" s="1">
-        <v>3000</v>
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
